--- a/biology/Zoologie/Donne-moi_des_ailes/Donne-moi_des_ailes.xlsx
+++ b/biology/Zoologie/Donne-moi_des_ailes/Donne-moi_des_ailes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Donne-moi des ailes est un film d'aventures français réalisé par Nicolas Vanier, sorti en 2019. Le film est inspiré par l'histoire de Christian Moullec, l’homme qui a volé avec les oies[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Donne-moi des ailes est un film d'aventures français réalisé par Nicolas Vanier, sorti en 2019. Le film est inspiré par l'histoire de Christian Moullec, l’homme qui a volé avec les oies,.
 Nicolas Vanier a écrit un livre et une BD adaptés du film.
 Il est présenté en avant-première au festival du film francophone d'Angoulême en 2019.
 </t>
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian est un scientifique visionnaire, spécialiste des oies sauvages. Thomas, son fils de 14 ans, est obligé de passer des vacances avec son père, car sa mère ne peut pas le garder. Pour cet adolescent obnubilé par les jeux vidéo, ce séjour en pleine nature s'annonce comme un véritable cauchemar. Pourtant, il va se rapprocher de son père et adhérer à son projet fou : sauver des oies naines, une espèce d'oies en voie de disparition, en les guidant depuis son ULM afin de leur apprendre une nouvelle route migratoire moins dangereuse que celle qu'elles adoptent normalement. C'est le début d'un incroyable et périlleux voyage depuis la Norvège, leur lieu de nidification, vers le sud de la France.
 </t>
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données d'Unifrance.
 Titre original : Donne-moi des ailes
@@ -566,9 +582,9 @@
 Langue originale : français
 Format : couleur
 Genre : aventures
-Durée : 113 minutes[3]
+Durée : 113 minutes
 Dates de sortie :
-France : 25 août 2019 (FFA 2019)[3] - 9 octobre 2019 (en salles)
+France : 25 août 2019 (FFA 2019) - 9 octobre 2019 (en salles)
 Belgique : 23 octobre 2019</t>
         </is>
       </c>
@@ -597,7 +613,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jean-Paul Rouve : Christian
 Louis Vazquez : Thomas
@@ -636,9 +654,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tournage a lieu en Camargue, notamment au Grau-du-Roi, début juin 2018[4]. À la suite d'une polémique sur la perte de cinq cents œufs de flamants roses, causée par plusieurs passages à basse altitude d’un ULM[5] au-dessus des salins d'Aigues-Mortes, et pour lequel une plainte contre X est déposée, il est repris en baie de Somme, dans des marais au bord de l’Oise, en Norvège en été et en Picardie durant l'hiver suivant[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a lieu en Camargue, notamment au Grau-du-Roi, début juin 2018. À la suite d'une polémique sur la perte de cinq cents œufs de flamants roses, causée par plusieurs passages à basse altitude d’un ULM au-dessus des salins d'Aigues-Mortes, et pour lequel une plainte contre X est déposée, il est repris en baie de Somme, dans des marais au bord de l’Oise, en Norvège en été et en Picardie durant l'hiver suivant.
 </t>
         </is>
       </c>
@@ -667,9 +687,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec 1 436 402 entrées, c'est le 35e film de l'année 2019 en termes d'affluence en France[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec 1 436 402 entrées, c'est le 35e film de l'année 2019 en termes d'affluence en France.
 </t>
         </is>
       </c>
